--- a/03_Outputs/all/01_TablasDescriptivas/idx11_pobreza_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx11_pobreza_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>13.02998061653006</v>
+        <v>13.02998061653005</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.084005647723412</v>
+        <v>3.084005647723399</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.964829486467458</v>
+        <v>1.964829486467459</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.084397297338371</v>
+        <v>1.084397297338372</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.6585019452484767</v>
+        <v>0.6585019452484756</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.3191938316400751</v>
+        <v>0.3191938316400754</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2093037432301204</v>
+        <v>0.2093037432301206</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.1448180867396704</v>
+        <v>0.1448180867396709</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.1324424314109797</v>
+        <v>0.1324424314109796</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.06215472769245318</v>
+        <v>0.06215472769245324</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.04918721588746881</v>
+        <v>0.04918721588746891</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.03956448776030677</v>
+        <v>0.03956448776030679</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.03342158737464061</v>
+        <v>0.03342158737464059</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.02383642364297961</v>
+        <v>0.02383642364297956</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.0003774866645679786</v>
+        <v>0.000377486664567977</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.0001289359348929504</v>
+        <v>0.000128935934892951</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>7.801768797992374E-05</v>
+        <v>7.801768797992509E-05</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>3.570248226711868E-05</v>
+        <v>3.570248226711806E-05</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>2.614577078952199E-15</v>
+        <v>2.614577076082099E-15</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>2.099552967818873E-15</v>
+        <v>2.099552969152432E-15</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>1.761259457545702E-15</v>
+        <v>1.76125944894973E-15</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>13.02998061653006</v>
+        <v>13.02998061653005</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>16.11398626425347</v>
+        <v>16.11398626425345</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>18.21128452643694</v>
+        <v>18.21128452643692</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>20.1761140129044</v>
+        <v>20.17611401290438</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>21.26051131024277</v>
+        <v>21.26051131024276</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>21.91901325549124</v>
+        <v>21.91901325549123</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>22.23820708713132</v>
+        <v>22.2382070871313</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>22.44751083036144</v>
+        <v>22.44751083036142</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>22.59232891710111</v>
+        <v>22.5923289171011</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>22.72477134851209</v>
+        <v>22.72477134851207</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>22.79121541487244</v>
+        <v>22.79121541487243</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>22.85337014256489</v>
+        <v>22.85337014256488</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>22.90255735845236</v>
+        <v>22.90255735845234</v>
       </c>
       <c r="C37">
         <v>13</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>22.94212184621266</v>
+        <v>22.94212184621265</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>22.9755434335873</v>
+        <v>22.97554343358729</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>22.99937985723028</v>
+        <v>22.99937985723027</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>22.99975734389485</v>
+        <v>22.99975734389484</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>22.99988627982974</v>
+        <v>22.99988627982973</v>
       </c>
       <c r="C42">
         <v>18</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>22.99996429751772</v>
+        <v>22.99996429751771</v>
       </c>
       <c r="C43">
         <v>19</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>22.99999999999999</v>
+        <v>22.99999999999998</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>22.99999999999999</v>
+        <v>22.99999999999998</v>
       </c>
       <c r="C45">
         <v>21</v>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="C46">
         <v>22</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="C47">
         <v>23</v>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>56.65208963708721</v>
+        <v>56.65208963708722</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>13.4087202074931</v>
+        <v>13.40872020749305</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>9.118688096449876</v>
+        <v>9.118688096449882</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>8.542736897684602</v>
+        <v>8.542736897684611</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>4.714770857992916</v>
+        <v>4.714770857992924</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>2.863051935862943</v>
+        <v>2.863051935862939</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>1.387799268000327</v>
+        <v>1.387799268000329</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.9100162749135668</v>
+        <v>0.9100162749135686</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.6296438553898712</v>
+        <v>0.629643855389874</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.5758366583086076</v>
+        <v>0.5758366583086073</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.2888872450450035</v>
+        <v>0.2888872450450036</v>
       </c>
       <c r="C58">
         <v>11</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.270237946488927</v>
+        <v>0.2702379464889273</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.2138574603802992</v>
+        <v>0.2138574603802997</v>
       </c>
       <c r="C60">
         <v>13</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.1720195120013338</v>
+        <v>0.172019512001334</v>
       </c>
       <c r="C61">
         <v>14</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.103636624534694</v>
+        <v>0.1036366245346938</v>
       </c>
       <c r="C63">
         <v>16</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.001641246367686864</v>
+        <v>0.001641246367686858</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.0005605910212736975</v>
+        <v>0.0005605910212737004</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.0003392073390431468</v>
+        <v>0.0003392073390431528</v>
       </c>
       <c r="C66">
         <v>19</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.0001552281837700812</v>
+        <v>0.0001552281837700786</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>1.136772643022695E-14</v>
+        <v>1.136772641774826E-14</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>9.128491164429883E-15</v>
+        <v>9.12849117022797E-15</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>7.657649815416096E-15</v>
+        <v>7.657649778042312E-15</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>56.65208963708721</v>
+        <v>56.65208963708722</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>70.06080984458029</v>
+        <v>70.06080984458026</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>79.17949794103018</v>
+        <v>79.17949794103015</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>87.72223483871477</v>
+        <v>87.72223483871475</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>92.4370056967077</v>
+        <v>92.43700569670769</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>95.30005763257064</v>
+        <v>95.30005763257063</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>96.68785690057096</v>
+        <v>96.68785690057095</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>97.59787317548452</v>
+        <v>97.59787317548451</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>99.092240934228</v>
+        <v>99.09224093422799</v>
       </c>
       <c r="C81">
         <v>11</v>
